--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="19160" windowHeight="10540" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="28540" windowHeight="19240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="3" r:id="rId2"/>
+    <sheet name="layout" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="423">
   <si>
     <t>9MAN</t>
   </si>
@@ -1241,13 +1242,61 @@
   </si>
   <si>
     <t>Source: Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>teams</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minnesota prep football teams by conference, 2015</t>
+  </si>
+  <si>
+    <t>Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>The team's host number</t>
+  </si>
+  <si>
+    <t>The team's name</t>
+  </si>
+  <si>
+    <t>The 2013 enrollment</t>
+  </si>
+  <si>
+    <t>The 2013 class</t>
+  </si>
+  <si>
+    <t>The 2013 section</t>
+  </si>
+  <si>
+    <t>School district number</t>
+  </si>
+  <si>
+    <t>Is the team co-op? 1 = yes, 0 = no</t>
+  </si>
+  <si>
+    <t>Longitude coordinate for school location</t>
+  </si>
+  <si>
+    <t>Latitude coordinate for school location</t>
+  </si>
+  <si>
+    <t>The school district's proper name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,6 +1308,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1281,14 +1346,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1584,7 +1661,7 @@
   <dimension ref="A1:J372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13522,22 +13599,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -13548,4 +13650,110 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>